--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H2">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I2">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J2">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N2">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O2">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P2">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q2">
-        <v>46.01422326893484</v>
+        <v>73.58005899724667</v>
       </c>
       <c r="R2">
-        <v>46.01422326893484</v>
+        <v>662.2205309752198</v>
       </c>
       <c r="S2">
-        <v>0.07116438132789588</v>
+        <v>0.09970318781849656</v>
       </c>
       <c r="T2">
-        <v>0.07116438132789588</v>
+        <v>0.09970318781849653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H3">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I3">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J3">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N3">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O3">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P3">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q3">
-        <v>223.4337786822655</v>
+        <v>254.1057701673027</v>
       </c>
       <c r="R3">
-        <v>223.4337786822655</v>
+        <v>2286.951931505724</v>
       </c>
       <c r="S3">
-        <v>0.3455567756679316</v>
+        <v>0.3443209433917732</v>
       </c>
       <c r="T3">
-        <v>0.3455567756679316</v>
+        <v>0.3443209433917732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H4">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I4">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J4">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N4">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O4">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P4">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q4">
-        <v>75.68126834354391</v>
+        <v>86.61507015575867</v>
       </c>
       <c r="R4">
-        <v>75.68126834354391</v>
+        <v>779.535631401828</v>
       </c>
       <c r="S4">
-        <v>0.117046648995917</v>
+        <v>0.1173660190728443</v>
       </c>
       <c r="T4">
-        <v>0.117046648995917</v>
+        <v>0.1173660190728443</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H5">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I5">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J5">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N5">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O5">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P5">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q5">
-        <v>29.47681077161677</v>
+        <v>42.24471838875665</v>
       </c>
       <c r="R5">
-        <v>29.47681077161677</v>
+        <v>380.2024654988099</v>
       </c>
       <c r="S5">
-        <v>0.0455880563238316</v>
+        <v>0.05724286103129258</v>
       </c>
       <c r="T5">
-        <v>0.0455880563238316</v>
+        <v>0.05724286103129258</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H6">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I6">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J6">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N6">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O6">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P6">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q6">
-        <v>143.1321610214132</v>
+        <v>145.8904334675447</v>
       </c>
       <c r="R6">
-        <v>143.1321610214132</v>
+        <v>1313.013901207902</v>
       </c>
       <c r="S6">
-        <v>0.2213644165561817</v>
+        <v>0.1976859150042375</v>
       </c>
       <c r="T6">
-        <v>0.2213644165561817</v>
+        <v>0.1976859150042375</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H7">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I7">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J7">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N7">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O7">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P7">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q7">
-        <v>48.48158389809618</v>
+        <v>49.72854461953266</v>
       </c>
       <c r="R7">
-        <v>48.48158389809618</v>
+        <v>447.5569015757939</v>
       </c>
       <c r="S7">
-        <v>0.07498033605260851</v>
+        <v>0.06738367013713975</v>
       </c>
       <c r="T7">
-        <v>0.07498033605260851</v>
+        <v>0.06738367013713975</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H8">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I8">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J8">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N8">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O8">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P8">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q8">
-        <v>10.71540769761223</v>
+        <v>15.24282143121778</v>
       </c>
       <c r="R8">
-        <v>10.71540769761223</v>
+        <v>137.18539288096</v>
       </c>
       <c r="S8">
-        <v>0.01657216628475753</v>
+        <v>0.02065448042243863</v>
       </c>
       <c r="T8">
-        <v>0.01657216628475753</v>
+        <v>0.02065448042243863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H9">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I9">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J9">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N9">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O9">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P9">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q9">
-        <v>52.03139077248967</v>
+        <v>52.64046987849245</v>
       </c>
       <c r="R9">
-        <v>52.03139077248967</v>
+        <v>473.764228906432</v>
       </c>
       <c r="S9">
-        <v>0.08047037352587547</v>
+        <v>0.07132941623960422</v>
       </c>
       <c r="T9">
-        <v>0.08047037352587547</v>
+        <v>0.07132941623960422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H10">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I10">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J10">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N10">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O10">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P10">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q10">
-        <v>17.62402117783786</v>
+        <v>17.94315016363378</v>
       </c>
       <c r="R10">
-        <v>17.62402117783786</v>
+        <v>161.488351472704</v>
       </c>
       <c r="S10">
-        <v>0.02725684526500101</v>
+        <v>0.02431350688217318</v>
       </c>
       <c r="T10">
-        <v>0.02725684526500101</v>
+        <v>0.02431350688217318</v>
       </c>
     </row>
   </sheetData>
